--- a/cost living calculator.xlsx
+++ b/cost living calculator.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{3814C3C0-4AF1-41B6-96A8-879784ACF92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F9281C-08BA-4A56-B212-68DF875516C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2F052-E96E-465E-A5D0-15FD719A83D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="260">
   <si>
     <t>Restaurants</t>
   </si>
@@ -529,24 +529,6 @@
     <t>4.00-9.00</t>
   </si>
   <si>
-    <t>2,827.15 A$</t>
-  </si>
-  <si>
-    <t>2,200.00-3,500.00</t>
-  </si>
-  <si>
-    <t>11,812.59 A$</t>
-  </si>
-  <si>
-    <t>8,000.00-18,000.00</t>
-  </si>
-  <si>
-    <t>7,726.00 A$</t>
-  </si>
-  <si>
-    <t>5,000.00-14,000.00</t>
-  </si>
-  <si>
     <t>5,902.60 A$</t>
   </si>
   <si>
@@ -556,9 +538,6 @@
     <t>Enter city name here (OPTIONAL):</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit </t>
-  </si>
-  <si>
     <t>3.00-5.00</t>
   </si>
   <si>
@@ -598,15 +577,9 @@
     <t>9.00-12.00</t>
   </si>
   <si>
-    <t>2.42 €</t>
-  </si>
-  <si>
     <t>1.50-5.00</t>
   </si>
   <si>
-    <t>2.61 €</t>
-  </si>
-  <si>
     <t>2.00-3.50</t>
   </si>
   <si>
@@ -622,96 +595,30 @@
     <t>0.90-1.40</t>
   </si>
   <si>
-    <t>1.41 €</t>
-  </si>
-  <si>
     <t>0.80-3.00</t>
   </si>
   <si>
-    <t>1.38 €</t>
-  </si>
-  <si>
-    <t>2.82 €</t>
-  </si>
-  <si>
-    <t>1.60-4.80</t>
-  </si>
-  <si>
-    <t>11.95 €</t>
-  </si>
-  <si>
     <t>8.00-20.00</t>
   </si>
   <si>
-    <t>7.76 €</t>
-  </si>
-  <si>
-    <t>13.80 €</t>
-  </si>
-  <si>
-    <t>9.00-18.00</t>
-  </si>
-  <si>
-    <t>2.21 €</t>
-  </si>
-  <si>
-    <t>1.84 €</t>
-  </si>
-  <si>
     <t>1.39-3.00</t>
   </si>
   <si>
-    <t>2.10 €</t>
-  </si>
-  <si>
-    <t>1.20-4.00</t>
-  </si>
-  <si>
-    <t>2.20 €</t>
-  </si>
-  <si>
-    <t>1.29-4.00</t>
-  </si>
-  <si>
-    <t>1.67 €</t>
-  </si>
-  <si>
     <t>0.80-2.50</t>
   </si>
   <si>
-    <t>1.66 €</t>
-  </si>
-  <si>
-    <t>1.14 €</t>
-  </si>
-  <si>
     <t>0.50-2.00</t>
   </si>
   <si>
-    <t>0.84 €</t>
-  </si>
-  <si>
     <t>0.25-1.50</t>
   </si>
   <si>
-    <t>1.17 €</t>
-  </si>
-  <si>
     <t>0.72-2.00</t>
   </si>
   <si>
-    <t>1.92 €</t>
-  </si>
-  <si>
-    <t>5.33-6.80</t>
-  </si>
-  <si>
     <t>1.50 €</t>
   </si>
   <si>
-    <t>50.00 €</t>
-  </si>
-  <si>
     <t>25.00-63.70</t>
   </si>
   <si>
@@ -721,9 +628,6 @@
     <t>22.00-30.00</t>
   </si>
   <si>
-    <t>1.50-1.90</t>
-  </si>
-  <si>
     <t>33,365.00 €</t>
   </si>
   <si>
@@ -736,112 +640,181 @@
     <t>26,000.00-32,000.00</t>
   </si>
   <si>
-    <t>161.81 €</t>
-  </si>
-  <si>
-    <t>106.25-250.00</t>
-  </si>
-  <si>
-    <t>14.93 €</t>
-  </si>
-  <si>
-    <t>7.00-30.00</t>
-  </si>
-  <si>
-    <t>30.86 €</t>
-  </si>
-  <si>
     <t>20.00-50.00</t>
   </si>
   <si>
-    <t>41.97 €</t>
-  </si>
-  <si>
-    <t>25.00-65.00</t>
-  </si>
-  <si>
-    <t>13.12 €</t>
-  </si>
-  <si>
-    <t>7.00-18.00</t>
-  </si>
-  <si>
-    <t>8.00-14.40</t>
-  </si>
-  <si>
     <t>547.73 €</t>
   </si>
   <si>
     <t>400.00-800.00</t>
   </si>
   <si>
-    <t>9,280.95 €</t>
-  </si>
-  <si>
     <t>6,000.00-18,000.00</t>
   </si>
   <si>
-    <t>80.61 €</t>
-  </si>
-  <si>
-    <t>40.00-110.00</t>
-  </si>
-  <si>
-    <t>34.88 €</t>
-  </si>
-  <si>
-    <t>91.31 €</t>
-  </si>
-  <si>
-    <t>112.07 €</t>
-  </si>
-  <si>
     <t>60.00-200.00</t>
   </si>
   <si>
-    <t>1,363.68 €</t>
-  </si>
-  <si>
-    <t>1,030.00-1,800.00</t>
-  </si>
-  <si>
-    <t>957.66 €</t>
-  </si>
-  <si>
     <t>800.00-1,200.00</t>
   </si>
   <si>
-    <t>2,277.40 €</t>
-  </si>
-  <si>
-    <t>1,700.00-3,000.00</t>
-  </si>
-  <si>
-    <t>1,529.17 €</t>
-  </si>
-  <si>
     <t>1,200.00-2,000.00</t>
   </si>
   <si>
-    <t>6,465.64 €</t>
-  </si>
-  <si>
-    <t>5,500.00-8,057.00</t>
-  </si>
-  <si>
-    <t>3,779.82 €</t>
-  </si>
-  <si>
     <t>3,000.00-5,000.00</t>
   </si>
   <si>
-    <t>2,171.90 €</t>
-  </si>
-  <si>
-    <t>2.53-4.50</t>
-  </si>
-  <si>
     <t>Madrid</t>
+  </si>
+  <si>
+    <t>2.48 €</t>
+  </si>
+  <si>
+    <t>2.62 €</t>
+  </si>
+  <si>
+    <t>1.69 €</t>
+  </si>
+  <si>
+    <t>1.40 €</t>
+  </si>
+  <si>
+    <t>2.86 €</t>
+  </si>
+  <si>
+    <t>1.20-4.80</t>
+  </si>
+  <si>
+    <t>11.94 €</t>
+  </si>
+  <si>
+    <t>7.77 €</t>
+  </si>
+  <si>
+    <t>13.90 €</t>
+  </si>
+  <si>
+    <t>9.56-18.00</t>
+  </si>
+  <si>
+    <t>2.17 €</t>
+  </si>
+  <si>
+    <t>1.49-3.00</t>
+  </si>
+  <si>
+    <t>1.82 €</t>
+  </si>
+  <si>
+    <t>2.03 €</t>
+  </si>
+  <si>
+    <t>1.00-3.50</t>
+  </si>
+  <si>
+    <t>2.16 €</t>
+  </si>
+  <si>
+    <t>1.19-3.99</t>
+  </si>
+  <si>
+    <t>1.62 €</t>
+  </si>
+  <si>
+    <t>1.13 €</t>
+  </si>
+  <si>
+    <t>0.86 €</t>
+  </si>
+  <si>
+    <t>1.20 €</t>
+  </si>
+  <si>
+    <t>1.90 €</t>
+  </si>
+  <si>
+    <t>5.33-7.00</t>
+  </si>
+  <si>
+    <t>35.00 €</t>
+  </si>
+  <si>
+    <t>1.00-2.50</t>
+  </si>
+  <si>
+    <t>1.50-1.85</t>
+  </si>
+  <si>
+    <t>159.56 €</t>
+  </si>
+  <si>
+    <t>15.58 €</t>
+  </si>
+  <si>
+    <t>7.00-35.00</t>
+  </si>
+  <si>
+    <t>30.10 €</t>
+  </si>
+  <si>
+    <t>41.86 €</t>
+  </si>
+  <si>
+    <t>20.00-66.00</t>
+  </si>
+  <si>
+    <t>13.33 €</t>
+  </si>
+  <si>
+    <t>7.00-20.00</t>
+  </si>
+  <si>
+    <t>8.00-14.00</t>
+  </si>
+  <si>
+    <t>9,661.90 €</t>
+  </si>
+  <si>
+    <t>79.15 €</t>
+  </si>
+  <si>
+    <t>40.00-105.00</t>
+  </si>
+  <si>
+    <t>35.93 €</t>
+  </si>
+  <si>
+    <t>91.11 €</t>
+  </si>
+  <si>
+    <t>110.00 €</t>
+  </si>
+  <si>
+    <t>1,359.27 €</t>
+  </si>
+  <si>
+    <t>1,050.00-1,800.00</t>
+  </si>
+  <si>
+    <t>957.21 €</t>
+  </si>
+  <si>
+    <t>2,251.59 €</t>
+  </si>
+  <si>
+    <t>1,800.00-3,000.00</t>
+  </si>
+  <si>
+    <t>1,530.95 €</t>
+  </si>
+  <si>
+    <t>6,565.64 €</t>
+  </si>
+  <si>
+    <t>5,500.00-8,500.00</t>
+  </si>
+  <si>
+    <t>3,840.42 €</t>
   </si>
 </sst>
 </file>
@@ -1283,6 +1256,16 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1299,25 +1282,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2533,10 +2506,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2840,7 +2809,7 @@
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,23 +2843,23 @@
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
-        <v>172</v>
+      <c r="B2" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2914,20 +2883,20 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="str">
+      <c r="B4" s="45" t="str">
         <f>"Total monthly cost for: " &amp; (I11+1) &amp; " adults and " &amp; I12 &amp; " kids"</f>
         <v>Total monthly cost for: 1 adults and  kids</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
         <v>79</v>
       </c>
       <c r="I4" s="10">
         <f>input_data!E14+input_data!E55</f>
-        <v>107.33</v>
+        <v>107.43249999999999</v>
       </c>
       <c r="J4" s="8">
         <f>IF(C11=_data!D3,_data!E3,IF(CALCULATION!C11=_data!D4,_data!E4,IF(CALCULATION!C11=_data!D5,_data!E5,"CHOOSE")))</f>
@@ -2936,29 +2905,29 @@
       <c r="K4" s="8"/>
       <c r="L4" s="10">
         <f>(1+J4)*I4</f>
-        <v>107.33</v>
+        <v>107.43249999999999</v>
       </c>
       <c r="M4" s="10">
         <f>L4*4</f>
-        <v>429.32</v>
+        <v>429.72999999999996</v>
       </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43">
+      <c r="B5" s="46">
         <f>M12+(M14*C9)+(C10*M16)</f>
-        <v>4494.6255411200009</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+        <v>3535.8446365733325</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="G5" s="7"/>
       <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
       <c r="I5" s="10">
         <f>input_data!E35</f>
-        <v>59.888099999999994</v>
+        <v>60.178699999999999</v>
       </c>
       <c r="J5" s="8">
         <v>0.4</v>
@@ -2968,28 +2937,28 @@
       </c>
       <c r="L5" s="10">
         <f t="shared" ref="L5:L9" si="0">(1+J5)*I5</f>
-        <v>83.843339999999984</v>
+        <v>84.25018</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ref="M5:M12" si="1">L5*4</f>
-        <v>335.37335999999993</v>
+        <v>337.00072</v>
       </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="7"/>
       <c r="H6" s="9" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="10">
         <f>input_data!E50</f>
-        <v>207.60000000000002</v>
+        <v>51.31</v>
       </c>
       <c r="J6" s="8">
         <v>0.1</v>
@@ -2999,11 +2968,11 @@
       </c>
       <c r="L6" s="10">
         <f t="shared" si="0"/>
-        <v>228.36000000000004</v>
+        <v>56.44100000000001</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="1"/>
-        <v>913.44000000000017</v>
+        <v>225.76400000000004</v>
       </c>
       <c r="N6" s="7"/>
     </row>
@@ -3014,7 +2983,7 @@
       </c>
       <c r="I7" s="10">
         <f>input_data!E71</f>
-        <v>382.99437499999999</v>
+        <v>381.18874999999997</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -3022,23 +2991,23 @@
       <c r="K7" s="8"/>
       <c r="L7" s="10">
         <f t="shared" si="0"/>
-        <v>382.99437499999999</v>
+        <v>381.18874999999997</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="1"/>
-        <v>1531.9775</v>
+        <v>1524.7549999999999</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="49"/>
+      <c r="E8" s="42"/>
       <c r="G8" s="7"/>
       <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="10">
         <f>input_data!E45</f>
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
       <c r="J8" s="8">
         <v>0.4</v>
@@ -3048,11 +3017,11 @@
       </c>
       <c r="L8" s="10">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>12.25</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7"/>
     </row>
@@ -3069,7 +3038,7 @@
       </c>
       <c r="I9" s="10">
         <f>input_data!E65</f>
-        <v>13.286249999999999</v>
+        <v>13.174583333333334</v>
       </c>
       <c r="J9" s="8">
         <f>IF(C12=_data!D3,_data!F3,IF(C12=_data!D4,_data!F4,IF(C12=_data!D5,_data!F5,"CHOOSE")))</f>
@@ -3080,11 +3049,11 @@
       </c>
       <c r="L9" s="10">
         <f t="shared" si="0"/>
-        <v>17.272124999999999</v>
+        <v>17.126958333333334</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" si="1"/>
-        <v>69.088499999999996</v>
+        <v>68.507833333333338</v>
       </c>
       <c r="N9" s="7"/>
     </row>
@@ -3104,11 +3073,11 @@
       </c>
       <c r="L10" s="14">
         <f>SUM(L4:L9)</f>
-        <v>837.29984000000002</v>
+        <v>658.68938833333323</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="1"/>
-        <v>3349.1993600000001</v>
+        <v>2634.7575533333329</v>
       </c>
       <c r="N10" s="7"/>
     </row>
@@ -3148,11 +3117,11 @@
       </c>
       <c r="L12" s="17">
         <f>(1+L11)*L10</f>
-        <v>921.02982400000008</v>
+        <v>724.55832716666657</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="1"/>
-        <v>3684.1192960000003</v>
+        <v>2898.2333086666663</v>
       </c>
       <c r="N12" s="7"/>
     </row>
@@ -3180,11 +3149,11 @@
       </c>
       <c r="L14" s="20">
         <f>L13*L12</f>
-        <v>184.20596480000003</v>
+        <v>144.91166543333333</v>
       </c>
       <c r="M14" s="20">
         <f>L14*4</f>
-        <v>736.82385920000013</v>
+        <v>579.6466617333333</v>
       </c>
       <c r="N14" s="7"/>
     </row>
@@ -3212,11 +3181,11 @@
       </c>
       <c r="L16" s="20">
         <f>L12*L15</f>
-        <v>18.42059648</v>
+        <v>14.491166543333332</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" ref="M16" si="2">L16*4</f>
-        <v>73.682385920000002</v>
+        <v>57.964666173333327</v>
       </c>
       <c r="N16" s="7"/>
     </row>
@@ -3277,844 +3246,790 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C65"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="50" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="C50" s="43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="C53" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="50" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="50" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="50" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="50" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="50" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="B73" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="50">
-        <v>3.58</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="50" t="s">
+      <c r="B74" s="43">
+        <v>6.27</v>
+      </c>
+      <c r="C74" s="43" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="50">
-        <v>6.27</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4135,8 +4050,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,14 +4230,14 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>VLOOKUP(A11,RAW!A:C,2,0)</f>
-        <v>2.42 €</v>
+        <v>2.48 €</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -4332,18 +4247,18 @@
       </c>
       <c r="B12" s="8" t="str">
         <f>VLOOKUP(A12,RAW!A:C,2,0)</f>
-        <v>2.61 €</v>
+        <v>2.62 €</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E12" s="10">
         <f>D12*F12</f>
-        <v>13.049999999999999</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="F12" s="32">
         <v>5</v>
@@ -4355,14 +4270,14 @@
       </c>
       <c r="B13" s="8" t="str">
         <f>VLOOKUP(A13,RAW!A:C,2,0)</f>
-        <v>1.68 €</v>
+        <v>1.69 €</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="31">
         <f t="shared" si="0"/>
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -4376,7 +4291,7 @@
       </c>
       <c r="E14" s="14">
         <f>SUM(E6:E13)</f>
-        <v>99.05</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4421,18 +4336,18 @@
       </c>
       <c r="B17" s="8" t="str">
         <f>VLOOKUP(A17,RAW!A:C,2,0)</f>
-        <v>1.41 €</v>
+        <v>1.40 €</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="31">
         <f t="shared" si="0"/>
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>4.2299999999999995</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="F17" s="32">
         <v>3</v>
@@ -4444,18 +4359,18 @@
       </c>
       <c r="B18" s="8" t="str">
         <f>VLOOKUP(A18,RAW!A:C,2,0)</f>
-        <v>1.38 €</v>
+        <v>1.40 €</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="31">
         <f t="shared" si="0"/>
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>4.1399999999999997</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="F18" s="32">
         <v>3</v>
@@ -4467,18 +4382,18 @@
       </c>
       <c r="B19" s="8" t="str">
         <f>VLOOKUP(A19,RAW!A:C,2,0)</f>
-        <v>2.82 €</v>
+        <v>2.86 €</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="31">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>8.4599999999999991</v>
+        <v>8.58</v>
       </c>
       <c r="F19" s="32">
         <v>3</v>
@@ -4490,18 +4405,18 @@
       </c>
       <c r="B20" s="8" t="str">
         <f>VLOOKUP(A20,RAW!A:C,2,0)</f>
-        <v>11.95 €</v>
+        <v>11.94 €</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="31">
         <f t="shared" si="0"/>
-        <v>11.95</v>
+        <v>11.94</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>2.39</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="F20" s="32">
         <v>0.2</v>
@@ -4513,18 +4428,18 @@
       </c>
       <c r="B21" s="8" t="str">
         <f>VLOOKUP(A21,RAW!A:C,2,0)</f>
-        <v>7.76 €</v>
+        <v>7.77 €</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="31">
         <f t="shared" si="0"/>
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>2.3279999999999998</v>
+        <v>2.331</v>
       </c>
       <c r="F21" s="32">
         <v>0.3</v>
@@ -4536,18 +4451,18 @@
       </c>
       <c r="B22" s="8" t="str">
         <f>VLOOKUP(A22,RAW!A:C,2,0)</f>
-        <v>13.80 €</v>
+        <v>13.90 €</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="31">
         <f t="shared" si="0"/>
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>4.1399999999999997</v>
+        <v>4.17</v>
       </c>
       <c r="F22" s="32">
         <v>0.3</v>
@@ -4559,18 +4474,18 @@
       </c>
       <c r="B23" s="8" t="str">
         <f>VLOOKUP(A23,RAW!A:C,2,0)</f>
-        <v>2.21 €</v>
+        <v>2.17 €</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="31">
         <f t="shared" si="0"/>
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>0.66300000000000003</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="F23" s="32">
         <f>3*0.1</f>
@@ -4583,18 +4498,18 @@
       </c>
       <c r="B24" s="8" t="str">
         <f>VLOOKUP(A24,RAW!A:C,2,0)</f>
-        <v>1.84 €</v>
+        <v>1.82 €</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="31">
         <f t="shared" si="0"/>
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="1"/>
-        <v>0.7360000000000001</v>
+        <v>0.72800000000000009</v>
       </c>
       <c r="F24" s="32">
         <f>4*0.1</f>
@@ -4607,18 +4522,18 @@
       </c>
       <c r="B25" s="8" t="str">
         <f>VLOOKUP(A25,RAW!A:C,2,0)</f>
-        <v>2.10 €</v>
+        <v>2.03 €</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="31">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="1"/>
-        <v>0.63000000000000012</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F25" s="32">
         <f>3*0.1</f>
@@ -4631,18 +4546,18 @@
       </c>
       <c r="B26" s="8" t="str">
         <f>VLOOKUP(A26,RAW!A:C,2,0)</f>
-        <v>2.20 €</v>
+        <v>2.16 €</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="31">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="F26" s="32">
         <f>5*0.2</f>
@@ -4655,18 +4570,18 @@
       </c>
       <c r="B27" s="8" t="str">
         <f>VLOOKUP(A27,RAW!A:C,2,0)</f>
-        <v>1.67 €</v>
+        <v>1.69 €</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="31">
         <f t="shared" si="0"/>
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>1.2524999999999999</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="F27" s="32">
         <f>0.125*6</f>
@@ -4679,18 +4594,18 @@
       </c>
       <c r="B28" s="8" t="str">
         <f>VLOOKUP(A28,RAW!A:C,2,0)</f>
-        <v>1.66 €</v>
+        <v>1.62 €</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="31">
         <f t="shared" si="0"/>
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" si="1"/>
-        <v>1.4441999999999997</v>
+        <v>1.4094</v>
       </c>
       <c r="F28" s="32">
         <f>6*0.145</f>
@@ -4703,18 +4618,18 @@
       </c>
       <c r="B29" s="8" t="str">
         <f>VLOOKUP(A29,RAW!A:C,2,0)</f>
-        <v>1.14 €</v>
+        <v>1.13 €</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="31">
         <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="1"/>
-        <v>1.0943999999999998</v>
+        <v>1.0847999999999998</v>
       </c>
       <c r="F29" s="32">
         <f>6*0.16</f>
@@ -4727,18 +4642,18 @@
       </c>
       <c r="B30" s="8" t="str">
         <f>VLOOKUP(A30,RAW!A:C,2,0)</f>
-        <v>0.84 €</v>
+        <v>0.86 €</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="31">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="1"/>
-        <v>6.72</v>
+        <v>6.88</v>
       </c>
       <c r="F30" s="32">
         <v>8</v>
@@ -4774,18 +4689,18 @@
       </c>
       <c r="B32" s="8" t="str">
         <f>VLOOKUP(A32,RAW!A:C,2,0)</f>
-        <v>1.17 €</v>
+        <v>1.20 €</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="1"/>
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="F32" s="32">
         <v>2</v>
@@ -4838,7 +4753,7 @@
       <c r="D35" s="35"/>
       <c r="E35" s="14">
         <f>SUM(E16:E34)</f>
-        <v>59.888099999999994</v>
+        <v>60.178699999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,18 +4792,18 @@
       </c>
       <c r="B38" s="8" t="str">
         <f>VLOOKUP(A38,RAW!A:C,2,0)</f>
-        <v>50.00 €</v>
+        <v>35.00 €</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E38" s="10">
         <f>D38*F38</f>
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
       <c r="F38" s="32">
         <f>1/4</f>
@@ -4952,14 +4867,14 @@
       </c>
       <c r="B42" s="8" t="str">
         <f>VLOOKUP(A42,RAW!A:C,2,0)</f>
-        <v>1.67 €</v>
+        <v>1.68 €</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D42" s="31">
         <f t="shared" si="0"/>
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="E42" s="28"/>
     </row>
@@ -5006,7 +4921,7 @@
       </c>
       <c r="E45" s="14">
         <f>SUM(E36:E44)</f>
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5028,21 +4943,22 @@
       </c>
       <c r="B47" s="8" t="str">
         <f>VLOOKUP(A47,RAW!A:C,2,0)</f>
-        <v>161.81 €</v>
+        <v>159.56 €</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D47" s="31">
         <f t="shared" si="0"/>
-        <v>161.81</v>
+        <v>159.56</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" ref="E47:E49" si="2">D47*F47</f>
-        <v>161.81</v>
+        <v>39.89</v>
       </c>
       <c r="F47" s="32">
-        <v>1</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5051,21 +4967,22 @@
       </c>
       <c r="B48" s="8" t="str">
         <f>VLOOKUP(A48,RAW!A:C,2,0)</f>
-        <v>14.93 €</v>
+        <v>15.58 €</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D48" s="31">
         <f t="shared" si="0"/>
-        <v>14.93</v>
+        <v>15.58</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" si="2"/>
-        <v>14.93</v>
+        <v>3.895</v>
       </c>
       <c r="F48" s="32">
-        <v>1</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5074,28 +4991,29 @@
       </c>
       <c r="B49" s="8" t="str">
         <f>VLOOKUP(A49,RAW!A:C,2,0)</f>
-        <v>30.86 €</v>
+        <v>30.10 €</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D49" s="31">
         <f t="shared" si="0"/>
-        <v>30.86</v>
+        <v>30.1</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" si="2"/>
-        <v>30.86</v>
+        <v>7.5250000000000004</v>
       </c>
       <c r="F49" s="32">
-        <v>1</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D50" s="35"/>
       <c r="E50" s="14">
         <f>SUM(E47:E49)</f>
-        <v>207.60000000000002</v>
+        <v>51.31</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,14 +5035,14 @@
       </c>
       <c r="B52" s="8" t="str">
         <f>VLOOKUP(A52,RAW!A:C,2,0)</f>
-        <v>41.97 €</v>
+        <v>41.86 €</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D52" s="31">
         <f t="shared" si="0"/>
-        <v>41.97</v>
+        <v>41.86</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ref="E52:E54" si="3">D52*F52</f>
@@ -5140,18 +5058,18 @@
       </c>
       <c r="B53" s="8" t="str">
         <f>VLOOKUP(A53,RAW!A:C,2,0)</f>
-        <v>13.12 €</v>
+        <v>13.33 €</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="31">
         <f t="shared" si="0"/>
-        <v>13.12</v>
+        <v>13.33</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="3"/>
-        <v>3.28</v>
+        <v>3.3325</v>
       </c>
       <c r="F53" s="32">
         <f>1/4</f>
@@ -5189,7 +5107,7 @@
       </c>
       <c r="E55" s="14">
         <f>SUM(E52:E54)</f>
-        <v>8.2799999999999994</v>
+        <v>8.3324999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5234,14 +5152,14 @@
       </c>
       <c r="B58" s="8" t="str">
         <f>VLOOKUP(A58,RAW!A:C,2,0)</f>
-        <v>9,280.95 €</v>
+        <v>9,661.90 €</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="31">
         <f t="shared" si="0"/>
-        <v>9280.9500000000007</v>
+        <v>9661.9</v>
       </c>
       <c r="E58" s="10">
         <f t="shared" si="4"/>
@@ -5282,18 +5200,18 @@
       </c>
       <c r="B61" s="8" t="str">
         <f>VLOOKUP(A61,RAW!A:C,2,0)</f>
-        <v>80.61 €</v>
+        <v>79.15 €</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="31">
         <f t="shared" si="0"/>
-        <v>80.61</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="E61" s="10">
         <f>((F61*D61)/12)/4</f>
-        <v>3.3587500000000001</v>
+        <v>3.2979166666666671</v>
       </c>
       <c r="F61" s="32">
         <v>2</v>
@@ -5305,18 +5223,18 @@
       </c>
       <c r="B62" s="8" t="str">
         <f>VLOOKUP(A62,RAW!A:C,2,0)</f>
-        <v>34.88 €</v>
+        <v>35.93 €</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D62" s="31">
         <f t="shared" si="0"/>
-        <v>34.880000000000003</v>
+        <v>35.93</v>
       </c>
       <c r="E62" s="10">
         <f>((F62*D62)/12)/4</f>
-        <v>1.4533333333333334</v>
+        <v>1.4970833333333333</v>
       </c>
       <c r="F62" s="32">
         <v>2</v>
@@ -5328,18 +5246,18 @@
       </c>
       <c r="B63" s="8" t="str">
         <f>VLOOKUP(A63,RAW!A:C,2,0)</f>
-        <v>91.31 €</v>
+        <v>91.11 €</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D63" s="31">
         <f t="shared" si="0"/>
-        <v>91.31</v>
+        <v>91.11</v>
       </c>
       <c r="E63" s="10">
         <f>((F63*D63)/12)/4</f>
-        <v>3.8045833333333334</v>
+        <v>3.7962500000000001</v>
       </c>
       <c r="F63" s="32">
         <v>2</v>
@@ -5351,18 +5269,18 @@
       </c>
       <c r="B64" s="8" t="str">
         <f>VLOOKUP(A64,RAW!A:C,2,0)</f>
-        <v>112.07 €</v>
+        <v>110.00 €</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D64" s="31">
         <f t="shared" si="0"/>
-        <v>112.07</v>
+        <v>110</v>
       </c>
       <c r="E64" s="10">
         <f>((F64*D64)/12)/4</f>
-        <v>4.6695833333333328</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="F64" s="32">
         <v>2</v>
@@ -5378,7 +5296,7 @@
       </c>
       <c r="E65" s="14">
         <f>SUM(E61:E64)</f>
-        <v>13.286249999999999</v>
+        <v>13.174583333333334</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5400,18 +5318,18 @@
       </c>
       <c r="B67" s="8" t="str">
         <f>VLOOKUP(A67,RAW!A:C,2,0)</f>
-        <v>1,363.68 €</v>
+        <v>1,359.27 €</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="31">
         <f t="shared" si="0"/>
-        <v>1363.68</v>
+        <v>1359.27</v>
       </c>
       <c r="E67" s="10">
         <f t="shared" ref="E67:E70" si="5">D67*F67</f>
-        <v>1363.68</v>
+        <v>1359.27</v>
       </c>
       <c r="F67" s="32">
         <v>1</v>
@@ -5423,18 +5341,18 @@
       </c>
       <c r="B68" s="8" t="str">
         <f>VLOOKUP(A68,RAW!A:C,2,0)</f>
-        <v>957.66 €</v>
+        <v>957.21 €</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>150</v>
       </c>
       <c r="D68" s="31">
         <f t="shared" si="0"/>
-        <v>957.66</v>
+        <v>957.21</v>
       </c>
       <c r="E68" s="10">
         <f t="shared" si="5"/>
-        <v>957.66</v>
+        <v>957.21</v>
       </c>
       <c r="F68" s="32">
         <v>1</v>
@@ -5446,18 +5364,18 @@
       </c>
       <c r="B69" s="8" t="str">
         <f>VLOOKUP(A69,RAW!A:C,2,0)</f>
-        <v>2,277.40 €</v>
+        <v>2,251.59 €</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="31">
         <f t="shared" si="0"/>
-        <v>2277.4</v>
+        <v>2251.59</v>
       </c>
       <c r="E69" s="10">
         <f t="shared" si="5"/>
-        <v>2277.4</v>
+        <v>2251.59</v>
       </c>
       <c r="F69" s="32">
         <v>1</v>
@@ -5469,18 +5387,18 @@
       </c>
       <c r="B70" s="8" t="str">
         <f>VLOOKUP(A70,RAW!A:C,2,0)</f>
-        <v>1,529.17 €</v>
+        <v>1,530.95 €</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>152</v>
       </c>
       <c r="D70" s="31">
         <f t="shared" si="0"/>
-        <v>1529.17</v>
+        <v>1530.95</v>
       </c>
       <c r="E70" s="10">
         <f t="shared" si="5"/>
-        <v>1529.17</v>
+        <v>1530.95</v>
       </c>
       <c r="F70" s="32">
         <v>1</v>
@@ -5496,7 +5414,7 @@
       </c>
       <c r="E71" s="14">
         <f>AVERAGE(E67:E70)/4</f>
-        <v>382.99437499999999</v>
+        <v>381.18874999999997</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5518,14 +5436,14 @@
       </c>
       <c r="B73" s="8" t="str">
         <f>VLOOKUP(A73,RAW!A:C,2,0)</f>
-        <v>6,465.64 €</v>
+        <v>6,565.64 €</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="31">
         <f t="shared" si="6"/>
-        <v>6465.64</v>
+        <v>6565.64</v>
       </c>
       <c r="E73" s="10">
         <f t="shared" ref="E73:E76" si="7">D73*F73</f>
@@ -5541,14 +5459,14 @@
       </c>
       <c r="B74" s="8" t="str">
         <f>VLOOKUP(A74,RAW!A:C,2,0)</f>
-        <v>3,779.82 €</v>
+        <v>3,840.42 €</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>154</v>
       </c>
       <c r="D74" s="31">
         <f t="shared" si="6"/>
-        <v>3779.82</v>
+        <v>3840.42</v>
       </c>
       <c r="E74" s="10">
         <f t="shared" si="7"/>
@@ -5574,16 +5492,16 @@
       </c>
       <c r="B76" s="8" t="str">
         <f>VLOOKUP(A76,RAW!A:C,2,0)</f>
-        <v>2,171.90 €</v>
+        <v>5,902.60 A$</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="31">
         <f t="shared" si="6"/>
-        <v>2171.9</v>
+        <v>5902.6</v>
       </c>
       <c r="E76" s="10">
         <f t="shared" si="7"/>
-        <v>2171.9</v>
+        <v>5902.6</v>
       </c>
       <c r="F76" s="32">
         <v>1</v>
@@ -5707,7 +5625,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pOzv7UsSDtiqmQ6L2wBF1yorAplQXa5zrliiwsPsQv54ctXsV2YpQzIMZx2by2zCaJ5N3D77dplB1bOHsyhCow==" saltValue="fBGuqpHyDxiF5CRCdkN1iA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DHBNQMdhsVrfp/fhLy6kl6kXz9UOpeyFHNxx8fwErRUNWDUQLOY8yA0K8XEEI2YUfHYIiqOllhcfxArDpymsIA==" saltValue="qG37SKtZ9uHjgZU7PHZLGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/cost living calculator.xlsx
+++ b/cost living calculator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2F052-E96E-465E-A5D0-15FD719A83D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C98B9-2D7F-4997-A610-78BB320BC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CALCULATION" sheetId="3" r:id="rId1"/>
@@ -2809,7 +2809,7 @@
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,8 +2884,8 @@
     </row>
     <row r="4" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="str">
-        <f>"Total monthly cost for: " &amp; (I11+1) &amp; " adults and " &amp; I12 &amp; " kids"</f>
-        <v>Total monthly cost for: 1 adults and  kids</v>
+        <f>"Total monthly cost for: " &amp; (C9+1) &amp; " adults and " &amp; C10 &amp; " kids"</f>
+        <v>Total monthly cost for: 2 adults and 1 kids</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -3200,7 +3200,7 @@
       <c r="N17" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CN+ZKktc9sNHltfMxEpYz/PlplaGnzYZNeuN33Hvmg+Ob76WAHgWEAy4FuagLyAT/t7cB5sBxqrlBcbLoh2K6w==" saltValue="lTNDUVdH/BO0T29sXxETWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+E0oqxVERzv/B96tf7ZzBd5DL0SltXYx3D8D+pBU8fUkuKkKKZrXwNZPvTpw72IdbPvXC0ePdcExFpvKpAUF0Q==" saltValue="KbtYX8Mg4hlvGOrzK1Bzjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="B4:E4"/>
